--- a/note attachments/02-后端框架/03-Spring/03-Spring注解汇总-相关表格.xlsx
+++ b/note attachments/02-后端框架/03-Spring/03-Spring注解汇总-相关表格.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="@ComponentScan相关属性" sheetId="1" r:id="rId1"/>
     <sheet name="@Bean相关属性" sheetId="10" r:id="rId2"/>
     <sheet name="@PropertySource相关属性" sheetId="11" r:id="rId3"/>
+    <sheet name="@Resource相关属性" sheetId="12" r:id="rId4"/>
+    <sheet name="@Scope相关属性" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>------------</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +237,90 @@
   </si>
   <si>
     <t>`factory`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`type`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`lookup`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`authenticationType`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`shareable`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`mappedName`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`description`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源的JNDI名称。在spring的注入时，指定bean的唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定bean的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用指向的资源的名称。它可以使用全局JNDI名称链接到任何兼容的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定资源的身份验证类型。它只能为任何受支持类型的连接工厂的资源指定此选项，而不能为其他类型的资源指定此选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定此资源是否可以在此组件和其他组件之间共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定资源的映射名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定资源的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`value`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`scopeName`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`proxyMode`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"singleton"/"prototype"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定作用范围的取值。在注解中默认值是""。但是在spring初始化容器时，会借助ConfigurableBeanFactory接口中的类成员：`String SCOPE_SINGLETON = "singleton";`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它和value的作用是一样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定bean对象的代理方式。指定的是ScopedProxyMode枚举的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`DEFAULT`：默认值。（就是NO）&lt;br/&gt;`NO`：不使用代理。&lt;br/&gt;`INTERFACES`：使用JDK官方的基于接口的代理。&lt;br/&gt;`TARGET_CLASS`：使用CGLIB基于目标类的子类创建代理对象。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +495,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1090,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
@@ -1143,75 +1229,445 @@
         <v>|:------------:|------------|------------|</v>
       </c>
     </row>
+    <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`name`|指定资源的名称。如果没有指定，将根据基础资源描述生成。||</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`value`|指定资源的位置。可以是类路径，也可以是文件路径。|如：类路径:`classpath:/com/myco/app.properties`&lt;br/&gt;文件路径：`file:/path/to/file.xml`|</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`ignoreResourceNotFound`|指定是否忽略资源文件不存在，默认是false,也就是说当资源文件不存在时spring启动将会报错|true/false|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`encoding`|指定解析资源文件使用的字符集。当有中文的时候，需要指定中文的字符集。|如："UTF-8"|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`factory`|指定读取对应资源文件的工厂类，默认的是PropertySourceFactory。||</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>$G$1&amp;B2&amp;$G$1&amp;C2&amp;$G$1&amp;D2&amp;$G$1</f>
+        <v>|属性名|作用|取值|</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F14" si="0">$G$1&amp;B3&amp;$G$1&amp;C3&amp;$G$1&amp;D3&amp;$G$1</f>
+        <v>|:------------:|------------|------------|</v>
+      </c>
+    </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`name`|指定资源的名称。如果没有指定，将根据基础资源描述生成。||</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+        <v>|`name`|资源的JNDI名称。在spring的注入时，指定bean的唯一标识||</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="F5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`value`|指定资源的位置。可以是类路径，也可以是文件路径。|如：类路径:`classpath:/com/myco/app.properties`&lt;br/&gt;文件路径：`file:/path/to/file.xml`|</v>
+        <v>|`type`|指定bean的类型||</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`ignoreResourceNotFound`|指定是否忽略资源文件不存在，默认是false,也就是说当资源文件不存在时spring启动将会报错|true/false|</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>|`lookup`|引用指向的资源的名称。它可以使用全局JNDI名称链接到任何兼容的资源||</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="F7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`encoding`|指定解析资源文件使用的字符集。当有中文的时候，需要指定中文的字符集。|如："UTF-8"|</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+        <v>|`authenticationType`|指定资源的身份验证类型。它只能为任何受支持类型的连接工厂的资源指定此选项，而不能为其他类型的资源指定此选项||</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|`factory`|指定读取对应资源文件的工厂类，默认的是PropertySourceFactory。||</v>
+        <v>|`shareable`|指定此资源是否可以在此组件和其他组件之间共享||</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`mappedName`|指定资源的映射名称||</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`description`|指定资源的描述||</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>$G$1&amp;B2&amp;$G$1&amp;C2&amp;$G$1&amp;D2&amp;$G$1</f>
+        <v>|属性名|作用|取值|</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F14" si="0">$G$1&amp;B3&amp;$G$1&amp;C3&amp;$G$1&amp;D3&amp;$G$1</f>
+        <v>|:------------:|------------|------------|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`value`|指定作用范围的取值。在注解中默认值是""。但是在spring初始化容器时，会借助ConfigurableBeanFactory接口中的类成员：`String SCOPE_SINGLETON = "singleton";`|"singleton"/"prototype"|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`scopeName`|它和value的作用是一样的||</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`proxyMode`|指定bean对象的代理方式。指定的是ScopedProxyMode枚举的值|`DEFAULT`：默认值。（就是NO）&lt;br/&gt;`NO`：不使用代理。&lt;br/&gt;`INTERFACES`：使用JDK官方的基于接口的代理。&lt;br/&gt;`TARGET_CLASS`：使用CGLIB基于目标类的子类创建代理对象。|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">

--- a/note attachments/02-后端框架/03-Spring/03-Spring注解汇总-相关表格.xlsx
+++ b/note attachments/02-后端框架/03-Spring/03-Spring注解汇总-相关表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="@ComponentScan相关属性" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="@PropertySource相关属性" sheetId="11" r:id="rId3"/>
     <sheet name="@Resource相关属性" sheetId="12" r:id="rId4"/>
     <sheet name="@Scope相关属性" sheetId="13" r:id="rId5"/>
+    <sheet name="@Transactional相关属性" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>------------</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +322,86 @@
   </si>
   <si>
     <t>`DEFAULT`：默认值。（就是NO）&lt;br/&gt;`NO`：不使用代理。&lt;br/&gt;`INTERFACES`：使用JDK官方的基于接口的代理。&lt;br/&gt;`TARGET_CLASS`：使用CGLIB基于目标类的子类创建代理对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`transactionManager`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定事务管理器的唯一标识，等同于transactionManager属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定事务管理器的唯一标识，等同于value属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定事务的传播行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`propagation`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`isolation`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定事务的超时时间，默认值为-1，表示永不超时（注：但只是相对而言，因为如果数据库连接超时，也是一样会失败）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`timeout`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`readOnly`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定事务是否只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过指定异常类的字节码，限定事务在特定情况下回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`rollbackFor`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`rollbackForClassName`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过指定异常类的全限定类名，限定事务在特定情况下回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`noRollbackFor`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过指定异常类的字节码，限定事务在特定情况下不回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`noRollbackForClassName`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过指定异常类的全限定类名，限定事务在特定情况下不回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true/false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定事务的隔离级别，一般都是使用默认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +576,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1556,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1729,4 +1810,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>$G$1&amp;B2&amp;$G$1&amp;C2&amp;$G$1&amp;D2&amp;$G$1</f>
+        <v>|属性名|作用|取值|</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F14" si="0">$G$1&amp;B3&amp;$G$1&amp;C3&amp;$G$1&amp;D3&amp;$G$1</f>
+        <v>|:------------:|------------|------------|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`value`|指定事务管理器的唯一标识，等同于transactionManager属性||</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`transactionManager`|指定事务管理器的唯一标识，等同于value属性||</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`propagation`|指定事务的传播行为||</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`isolation`|指定事务的隔离级别，一般都是使用默认||</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`timeout`|指定事务的超时时间，默认值为-1，表示永不超时（注：但只是相对而言，因为如果数据库连接超时，也是一样会失败）||</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`readOnly`|指定事务是否只读|true/false|</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`rollbackFor`|通过指定异常类的字节码，限定事务在特定情况下回滚||</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`rollbackForClassName`|通过指定异常类的全限定类名，限定事务在特定情况下回滚||</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`noRollbackFor`|通过指定异常类的字节码，限定事务在特定情况下不回滚||</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|`noRollbackForClassName`|通过指定异常类的全限定类名，限定事务在特定情况下不回滚||</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>||||</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>